--- a/output_data_csgo_all_2.xlsx
+++ b/output_data_csgo_all_2.xlsx
@@ -32,7 +32,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -55,6 +55,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00CCDAFF"/>
         <bgColor rgb="00CCDAFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADADAD"/>
+        <bgColor rgb="00ADADAD"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -93,6 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3386,7 +3393,7 @@
           <t>Big Mac((VC Costume)</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B51" s="7" t="inlineStr">
         <is>
           <t>Black Squad Trading Card</t>
         </is>
@@ -3444,7 +3451,7 @@
           <t>Ice Fields</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" s="7" t="inlineStr">
         <is>
           <t>Project Winter Trading Card</t>
         </is>
@@ -3502,7 +3509,7 @@
           <t>IDF</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -3560,7 +3567,7 @@
           <t>Anchored</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B54" s="7" t="inlineStr">
         <is>
           <t>Project Winter Trading Card</t>
         </is>
@@ -3792,7 +3799,7 @@
           <t>FBI</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B58" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -4082,7 +4089,7 @@
           <t>FBI</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B63" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -4140,7 +4147,7 @@
           <t>Balkan</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="B64" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -4198,7 +4205,7 @@
           <t>Jayce(VC Costume)</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="B65" s="7" t="inlineStr">
         <is>
           <t>Black Squad Trading Card</t>
         </is>
@@ -4256,7 +4263,7 @@
           <t>SWAT</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="B66" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -4314,7 +4321,7 @@
           <t>Bloodhound (Trading Card)</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="B67" s="7" t="inlineStr">
         <is>
           <t>Apex Legends Trading Card</t>
         </is>
@@ -4430,7 +4437,7 @@
           <t>Archer Rat</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="B69" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -4488,7 +4495,7 @@
           <t>Elena(VC Costume)</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="B70" s="7" t="inlineStr">
         <is>
           <t>Black Squad Trading Card</t>
         </is>
@@ -4546,7 +4553,7 @@
           <t>Vacuum Rat</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="B71" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -4604,7 +4611,7 @@
           <t>Koji</t>
         </is>
       </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="B72" s="7" t="inlineStr">
         <is>
           <t>Brawlhalla Trading Card</t>
         </is>
@@ -4662,7 +4669,7 @@
           <t>Fat Rat</t>
         </is>
       </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="B73" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -4720,7 +4727,7 @@
           <t>Hattori (Trading Card)</t>
         </is>
       </c>
-      <c r="B74" s="5" t="inlineStr">
+      <c r="B74" s="7" t="inlineStr">
         <is>
           <t>Brawlhalla Trading Card</t>
         </is>
@@ -4952,7 +4959,7 @@
           <t>Bear Fight</t>
         </is>
       </c>
-      <c r="B78" s="5" t="inlineStr">
+      <c r="B78" s="7" t="inlineStr">
         <is>
           <t>Project Winter Trading Card</t>
         </is>
@@ -5010,7 +5017,7 @@
           <t>Fleshpound</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" s="7" t="inlineStr">
         <is>
           <t>Killing Floor Trading Card</t>
         </is>
@@ -5126,7 +5133,7 @@
           <t>Int. Academic</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" s="7" t="inlineStr">
         <is>
           <t>Hacknet Trading Card</t>
         </is>
@@ -5184,7 +5191,7 @@
           <t>CSEC</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" s="7" t="inlineStr">
         <is>
           <t>Hacknet Trading Card</t>
         </is>
@@ -5242,7 +5249,7 @@
           <t>The Great Escape</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B83" s="7" t="inlineStr">
         <is>
           <t>Project Winter Trading Card</t>
         </is>
@@ -5300,7 +5307,7 @@
           <t>Woodsman</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="B84" s="7" t="inlineStr">
         <is>
           <t>Project Winter Trading Card</t>
         </is>
@@ -5358,7 +5365,7 @@
           <t>HEAVY (Trading Card)</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" s="7" t="inlineStr">
         <is>
           <t>Team Fortress 2 Trading Card</t>
         </is>
@@ -5416,7 +5423,7 @@
           <t>PYRO (Trading Card)</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" s="7" t="inlineStr">
         <is>
           <t>Team Fortress 2 Trading Card</t>
         </is>
@@ -5532,7 +5539,7 @@
           <t>Fat Rat</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -5590,7 +5597,7 @@
           <t>Fat Rat</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -5648,7 +5655,7 @@
           <t>Cannon Rat</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -5706,7 +5713,7 @@
           <t>Archer Rat</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B91" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -5764,7 +5771,7 @@
           <t>Fat Rat</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" s="7" t="inlineStr">
         <is>
           <t>Bad Rats Trading Card</t>
         </is>
@@ -5822,7 +5829,7 @@
           <t>Kellis Biotech</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" s="7" t="inlineStr">
         <is>
           <t>Hacknet Trading Card</t>
         </is>
@@ -5880,7 +5887,7 @@
           <t>Killstreak Sniper Rifle</t>
         </is>
       </c>
-      <c r="B94" s="7" t="inlineStr">
+      <c r="B94" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -6052,7 +6059,7 @@
           <t>Machariel (Trading Card)</t>
         </is>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" s="7" t="inlineStr">
         <is>
           <t>EVE Online Trading Card</t>
         </is>
@@ -6110,7 +6117,7 @@
           <t>Apocalypse</t>
         </is>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B98" s="7" t="inlineStr">
         <is>
           <t>EVE Online Trading Card</t>
         </is>
@@ -7328,7 +7335,7 @@
           <t>Venom</t>
         </is>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" s="7" t="inlineStr">
         <is>
           <t>GUILTY GEAR Xrd REV 2 Trading Card</t>
         </is>
@@ -7734,7 +7741,7 @@
           <t>Macabre Web Grenade Launcher</t>
         </is>
       </c>
-      <c r="B126" s="7" t="inlineStr">
+      <c r="B126" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -7792,7 +7799,7 @@
           <t>6th Street</t>
         </is>
       </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="B127" s="7" t="inlineStr">
         <is>
           <t>Cyberpunk 2077 Trading Card</t>
         </is>
@@ -7966,7 +7973,7 @@
           <t>Festivized Macabre Web Stickybomb Launcher</t>
         </is>
       </c>
-      <c r="B130" s="7" t="inlineStr">
+      <c r="B130" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -8140,7 +8147,7 @@
           <t>Strange Killstreak Medi Gun</t>
         </is>
       </c>
-      <c r="B133" s="7" t="inlineStr">
+      <c r="B133" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -8314,7 +8321,7 @@
           <t>Bomb Beanie</t>
         </is>
       </c>
-      <c r="B136" s="7" t="inlineStr">
+      <c r="B136" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -8372,7 +8379,7 @@
           <t>''ALLAHU AKBAR!!!''</t>
         </is>
       </c>
-      <c r="B137" s="7" t="inlineStr">
+      <c r="B137" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -8430,7 +8437,7 @@
           <t>Strange Killstreak Market Gardener</t>
         </is>
       </c>
-      <c r="B138" s="7" t="inlineStr">
+      <c r="B138" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -8720,7 +8727,7 @@
           <t>CSEC</t>
         </is>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" s="7" t="inlineStr">
         <is>
           <t>Hacknet Trading Card</t>
         </is>
@@ -8778,7 +8785,7 @@
           <t>EnTech</t>
         </is>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" s="7" t="inlineStr">
         <is>
           <t>Hacknet Trading Card</t>
         </is>
@@ -8836,7 +8843,7 @@
           <t>IDF</t>
         </is>
       </c>
-      <c r="B145" s="5" t="inlineStr">
+      <c r="B145" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -8894,7 +8901,7 @@
           <t>Killstreak Wrench</t>
         </is>
       </c>
-      <c r="B146" s="7" t="inlineStr">
+      <c r="B146" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -8952,7 +8959,7 @@
           <t>Killstreak Black Box</t>
         </is>
       </c>
-      <c r="B147" s="7" t="inlineStr">
+      <c r="B147" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -9010,7 +9017,7 @@
           <t>''Projectile Dysfunction''</t>
         </is>
       </c>
-      <c r="B148" s="7" t="inlineStr">
+      <c r="B148" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -9938,7 +9945,7 @@
           <t>The Patriot Peak</t>
         </is>
       </c>
-      <c r="B164" s="7" t="inlineStr">
+      <c r="B164" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -10054,7 +10061,7 @@
           <t>''Quack :)''</t>
         </is>
       </c>
-      <c r="B166" s="7" t="inlineStr">
+      <c r="B166" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -10228,7 +10235,7 @@
           <t>Killstreak Half-Zatoichi</t>
         </is>
       </c>
-      <c r="B169" s="7" t="inlineStr">
+      <c r="B169" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -10286,7 +10293,7 @@
           <t>Strange Shin Shredders</t>
         </is>
       </c>
-      <c r="B170" s="7" t="inlineStr">
+      <c r="B170" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -10344,7 +10351,7 @@
           <t>Airborne Attire</t>
         </is>
       </c>
-      <c r="B171" s="7" t="inlineStr">
+      <c r="B171" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -11446,7 +11453,7 @@
           <t>The Bitter Taste of Defeat and Lime</t>
         </is>
       </c>
-      <c r="B190" s="7" t="inlineStr">
+      <c r="B190" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -11504,7 +11511,7 @@
           <t>Airborne Attire</t>
         </is>
       </c>
-      <c r="B191" s="7" t="inlineStr">
+      <c r="B191" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -11562,7 +11569,7 @@
           <t>Duck Billed Hatypus</t>
         </is>
       </c>
-      <c r="B192" s="7" t="inlineStr">
+      <c r="B192" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12200,7 +12207,7 @@
           <t>Twigs and Sprockets</t>
         </is>
       </c>
-      <c r="B203" s="5" t="inlineStr">
+      <c r="B203" s="7" t="inlineStr">
         <is>
           <t>Don't Starve Together Trading Card</t>
         </is>
@@ -12374,7 +12381,7 @@
           <t>''Projectile Dysfunction''</t>
         </is>
       </c>
-      <c r="B206" s="7" t="inlineStr">
+      <c r="B206" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12432,7 +12439,7 @@
           <t>The Patriot Peak</t>
         </is>
       </c>
-      <c r="B207" s="7" t="inlineStr">
+      <c r="B207" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12488,7 +12495,7 @@
           <t>''ALLAHU AKBAR!!!''</t>
         </is>
       </c>
-      <c r="B208" s="7" t="inlineStr">
+      <c r="B208" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12546,7 +12553,7 @@
           <t>Bomb Beanie</t>
         </is>
       </c>
-      <c r="B209" s="7" t="inlineStr">
+      <c r="B209" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12720,7 +12727,7 @@
           <t>Killstreak Black Box</t>
         </is>
       </c>
-      <c r="B212" s="7" t="inlineStr">
+      <c r="B212" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12778,7 +12785,7 @@
           <t>Killstreak Wrench</t>
         </is>
       </c>
-      <c r="B213" s="7" t="inlineStr">
+      <c r="B213" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12836,7 +12843,7 @@
           <t>Killstreak Medi Gun Kit</t>
         </is>
       </c>
-      <c r="B214" s="7" t="inlineStr">
+      <c r="B214" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -12952,7 +12959,7 @@
           <t>Strange Killstreak Market Gardener</t>
         </is>
       </c>
-      <c r="B216" s="7" t="inlineStr">
+      <c r="B216" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13126,7 +13133,7 @@
           <t>Aerobatics Demonstrator</t>
         </is>
       </c>
-      <c r="B219" s="7" t="inlineStr">
+      <c r="B219" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13242,7 +13249,7 @@
           <t>Secret Saxton</t>
         </is>
       </c>
-      <c r="B221" s="7" t="inlineStr">
+      <c r="B221" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13358,7 +13365,7 @@
           <t>Strange Medi Gun</t>
         </is>
       </c>
-      <c r="B223" s="7" t="inlineStr">
+      <c r="B223" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13416,7 +13423,7 @@
           <t>Killstreak Sniper Rifle</t>
         </is>
       </c>
-      <c r="B224" s="7" t="inlineStr">
+      <c r="B224" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13474,7 +13481,7 @@
           <t>Killstreak Half-Zatoichi</t>
         </is>
       </c>
-      <c r="B225" s="7" t="inlineStr">
+      <c r="B225" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13532,7 +13539,7 @@
           <t>Strange Shin Shredders</t>
         </is>
       </c>
-      <c r="B226" s="7" t="inlineStr">
+      <c r="B226" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13590,7 +13597,7 @@
           <t>Specialized Killstreak Stickybomb Launcher Kit</t>
         </is>
       </c>
-      <c r="B227" s="7" t="inlineStr">
+      <c r="B227" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13648,7 +13655,7 @@
           <t>Macabre Web Stickybomb Launcher</t>
         </is>
       </c>
-      <c r="B228" s="7" t="inlineStr">
+      <c r="B228" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13706,7 +13713,7 @@
           <t>Killstreak Grenade Launcher Kit</t>
         </is>
       </c>
-      <c r="B229" s="7" t="inlineStr">
+      <c r="B229" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13764,7 +13771,7 @@
           <t>Macabre Web Grenade Launcher</t>
         </is>
       </c>
-      <c r="B230" s="7" t="inlineStr">
+      <c r="B230" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -13996,7 +14003,7 @@
           <t>Mann Co. Supply Munition Series #90</t>
         </is>
       </c>
-      <c r="B234" s="7" t="inlineStr">
+      <c r="B234" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -15330,7 +15337,7 @@
           <t>Unusual Glengarry Bonnet</t>
         </is>
       </c>
-      <c r="B257" s="7" t="inlineStr">
+      <c r="B257" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -15504,7 +15511,7 @@
           <t>Secret Saxton</t>
         </is>
       </c>
-      <c r="B260" s="7" t="inlineStr">
+      <c r="B260" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -15968,7 +15975,7 @@
           <t>Mann Co. Supply Crate Key</t>
         </is>
       </c>
-      <c r="B268" s="7" t="inlineStr">
+      <c r="B268" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -16258,7 +16265,7 @@
           <t>Strange Pain Train</t>
         </is>
       </c>
-      <c r="B273" s="7" t="inlineStr">
+      <c r="B273" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17244,7 +17251,7 @@
           <t>Strange Specialized Killstreak Pink Elephant Stickybomb Launcher</t>
         </is>
       </c>
-      <c r="B290" s="7" t="inlineStr">
+      <c r="B290" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17476,7 +17483,7 @@
           <t>Strange Specialized Killstreak Australium Grenade Launcher</t>
         </is>
       </c>
-      <c r="B294" s="7" t="inlineStr">
+      <c r="B294" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17534,7 +17541,7 @@
           <t>Professional Killstreak Bottle</t>
         </is>
       </c>
-      <c r="B295" s="7" t="inlineStr">
+      <c r="B295" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17592,7 +17599,7 @@
           <t>Mann Co. Supply Munition Series #90</t>
         </is>
       </c>
-      <c r="B296" s="7" t="inlineStr">
+      <c r="B296" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17650,7 +17657,7 @@
           <t>Mann Co. Supply Munition Series #90</t>
         </is>
       </c>
-      <c r="B297" s="7" t="inlineStr">
+      <c r="B297" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17708,7 +17715,7 @@
           <t>Mann Co. Supply Munition Series #91</t>
         </is>
       </c>
-      <c r="B298" s="7" t="inlineStr">
+      <c r="B298" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17766,7 +17773,7 @@
           <t>Strange Specialized Killstreak Australium Grenade Launcher</t>
         </is>
       </c>
-      <c r="B299" s="7" t="inlineStr">
+      <c r="B299" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17824,7 +17831,7 @@
           <t>The Essential Accessories</t>
         </is>
       </c>
-      <c r="B300" s="7" t="inlineStr">
+      <c r="B300" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17882,7 +17889,7 @@
           <t>Specialized Killstreak Three-Rune Blade</t>
         </is>
       </c>
-      <c r="B301" s="7" t="inlineStr">
+      <c r="B301" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17940,7 +17947,7 @@
           <t>Killstreak Festive Chargin' Targe</t>
         </is>
       </c>
-      <c r="B302" s="7" t="inlineStr">
+      <c r="B302" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -17998,7 +18005,7 @@
           <t>Strange Specialized Killstreak Scattergun</t>
         </is>
       </c>
-      <c r="B303" s="7" t="inlineStr">
+      <c r="B303" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18056,7 +18063,7 @@
           <t>Strange Killstreak Grenade Launcher</t>
         </is>
       </c>
-      <c r="B304" s="7" t="inlineStr">
+      <c r="B304" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18114,7 +18121,7 @@
           <t>The Lady Killer</t>
         </is>
       </c>
-      <c r="B305" s="7" t="inlineStr">
+      <c r="B305" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18172,7 +18179,7 @@
           <t>Strange Professional Killstreak Medi Gun</t>
         </is>
       </c>
-      <c r="B306" s="7" t="inlineStr">
+      <c r="B306" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18230,7 +18237,7 @@
           <t>''The magical bottle of scrampeh''</t>
         </is>
       </c>
-      <c r="B307" s="7" t="inlineStr">
+      <c r="B307" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18288,7 +18295,7 @@
           <t>''GOT YA BICH''</t>
         </is>
       </c>
-      <c r="B308" s="7" t="inlineStr">
+      <c r="B308" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18346,7 +18353,7 @@
           <t>Strange Killstreak Market Gardener</t>
         </is>
       </c>
-      <c r="B309" s="7" t="inlineStr">
+      <c r="B309" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18404,7 +18411,7 @@
           <t>Strange Killstreak Pretty Boy's Pocket Pistol</t>
         </is>
       </c>
-      <c r="B310" s="7" t="inlineStr">
+      <c r="B310" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18462,7 +18469,7 @@
           <t>Unusual Glengarry Bonnet</t>
         </is>
       </c>
-      <c r="B311" s="7" t="inlineStr">
+      <c r="B311" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18520,7 +18527,7 @@
           <t>Giftapult</t>
         </is>
       </c>
-      <c r="B312" s="7" t="inlineStr">
+      <c r="B312" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18578,7 +18585,7 @@
           <t>Strange Pain Train</t>
         </is>
       </c>
-      <c r="B313" s="7" t="inlineStr">
+      <c r="B313" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18636,7 +18643,7 @@
           <t>Festive Chargin' Targe</t>
         </is>
       </c>
-      <c r="B314" s="7" t="inlineStr">
+      <c r="B314" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18694,7 +18701,7 @@
           <t>Killstreak Chargin' Targe Kit</t>
         </is>
       </c>
-      <c r="B315" s="7" t="inlineStr">
+      <c r="B315" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18752,7 +18759,7 @@
           <t>Professional Killstreak Bottle Kit</t>
         </is>
       </c>
-      <c r="B316" s="7" t="inlineStr">
+      <c r="B316" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18810,7 +18817,7 @@
           <t>Specialized Killstreak Stickybomb Launcher Kit</t>
         </is>
       </c>
-      <c r="B317" s="7" t="inlineStr">
+      <c r="B317" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18868,7 +18875,7 @@
           <t>Strange Professional Killstreak Ubersaw</t>
         </is>
       </c>
-      <c r="B318" s="7" t="inlineStr">
+      <c r="B318" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18926,7 +18933,7 @@
           <t>Strange Killstreak Crusader's Crossbow</t>
         </is>
       </c>
-      <c r="B319" s="7" t="inlineStr">
+      <c r="B319" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -18984,7 +18991,7 @@
           <t>Killstreak Stickybomb Launcher Kit</t>
         </is>
       </c>
-      <c r="B320" s="7" t="inlineStr">
+      <c r="B320" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19042,7 +19049,7 @@
           <t>Strange Pink Elephant Stickybomb Launcher</t>
         </is>
       </c>
-      <c r="B321" s="7" t="inlineStr">
+      <c r="B321" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19100,7 +19107,7 @@
           <t>Pink Elephant Stickybomb Launcher</t>
         </is>
       </c>
-      <c r="B322" s="7" t="inlineStr">
+      <c r="B322" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19158,7 +19165,7 @@
           <t>Killstreak Festive Ambassador</t>
         </is>
       </c>
-      <c r="B323" s="7" t="inlineStr">
+      <c r="B323" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19216,7 +19223,7 @@
           <t>''The magical bottle of scrampeh''</t>
         </is>
       </c>
-      <c r="B324" s="7" t="inlineStr">
+      <c r="B324" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19274,7 +19281,7 @@
           <t>Smalltown Bringdown Rocket Launcher</t>
         </is>
       </c>
-      <c r="B325" s="7" t="inlineStr">
+      <c r="B325" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19332,7 +19339,7 @@
           <t>Bill's Hat</t>
         </is>
       </c>
-      <c r="B326" s="7" t="inlineStr">
+      <c r="B326" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19390,7 +19397,7 @@
           <t>Strange Killstreak Grenade Launcher</t>
         </is>
       </c>
-      <c r="B327" s="7" t="inlineStr">
+      <c r="B327" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19448,7 +19455,7 @@
           <t>Pink Elephant Stickybomb Launcher</t>
         </is>
       </c>
-      <c r="B328" s="7" t="inlineStr">
+      <c r="B328" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19506,7 +19513,7 @@
           <t>Killstreak Stickybomb Launcher Kit</t>
         </is>
       </c>
-      <c r="B329" s="7" t="inlineStr">
+      <c r="B329" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19564,7 +19571,7 @@
           <t>Professional Killstreak Ubersaw Kit</t>
         </is>
       </c>
-      <c r="B330" s="7" t="inlineStr">
+      <c r="B330" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19622,7 +19629,7 @@
           <t>Bill's Hat</t>
         </is>
       </c>
-      <c r="B331" s="7" t="inlineStr">
+      <c r="B331" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19680,7 +19687,7 @@
           <t>The Lady Killer</t>
         </is>
       </c>
-      <c r="B332" s="7" t="inlineStr">
+      <c r="B332" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19738,7 +19745,7 @@
           <t>Killstreak Festive Ambassador</t>
         </is>
       </c>
-      <c r="B333" s="7" t="inlineStr">
+      <c r="B333" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19796,7 +19803,7 @@
           <t>Killstreak Market Gardener Kit</t>
         </is>
       </c>
-      <c r="B334" s="7" t="inlineStr">
+      <c r="B334" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19854,7 +19861,7 @@
           <t>Strange Killstreak Crusader's Crossbow</t>
         </is>
       </c>
-      <c r="B335" s="7" t="inlineStr">
+      <c r="B335" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19912,7 +19919,7 @@
           <t>Smalltown Bringdown Rocket Launcher</t>
         </is>
       </c>
-      <c r="B336" s="7" t="inlineStr">
+      <c r="B336" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -19970,7 +19977,7 @@
           <t>''GOT YA BICH''</t>
         </is>
       </c>
-      <c r="B337" s="7" t="inlineStr">
+      <c r="B337" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20028,7 +20035,7 @@
           <t>Genuine Foppish Physician</t>
         </is>
       </c>
-      <c r="B338" s="7" t="inlineStr">
+      <c r="B338" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20086,7 +20093,7 @@
           <t>Killstreak Ubersaw</t>
         </is>
       </c>
-      <c r="B339" s="7" t="inlineStr">
+      <c r="B339" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20144,7 +20151,7 @@
           <t>Strange Killstreak Ubersaw</t>
         </is>
       </c>
-      <c r="B340" s="7" t="inlineStr">
+      <c r="B340" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20202,7 +20209,7 @@
           <t>Strange Medi Gun</t>
         </is>
       </c>
-      <c r="B341" s="7" t="inlineStr">
+      <c r="B341" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20260,7 +20267,7 @@
           <t>Strange Professional Killstreak Medi Gun</t>
         </is>
       </c>
-      <c r="B342" s="7" t="inlineStr">
+      <c r="B342" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20318,7 +20325,7 @@
           <t>Killstreak Ubersaw</t>
         </is>
       </c>
-      <c r="B343" s="7" t="inlineStr">
+      <c r="B343" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20376,7 +20383,7 @@
           <t>Strange Medi Gun</t>
         </is>
       </c>
-      <c r="B344" s="7" t="inlineStr">
+      <c r="B344" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20434,7 +20441,7 @@
           <t>Genuine Hardy Laurel</t>
         </is>
       </c>
-      <c r="B345" s="7" t="inlineStr">
+      <c r="B345" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20492,7 +20499,7 @@
           <t>Genuine Foppish Physician</t>
         </is>
       </c>
-      <c r="B346" s="7" t="inlineStr">
+      <c r="B346" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20550,7 +20557,7 @@
           <t>Genuine Hardy Laurel</t>
         </is>
       </c>
-      <c r="B347" s="7" t="inlineStr">
+      <c r="B347" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20608,7 +20615,7 @@
           <t>Killstreak Sandman</t>
         </is>
       </c>
-      <c r="B348" s="7" t="inlineStr">
+      <c r="B348" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20666,7 +20673,7 @@
           <t>Strange Market Gardener</t>
         </is>
       </c>
-      <c r="B349" s="7" t="inlineStr">
+      <c r="B349" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20724,7 +20731,7 @@
           <t>Specialized Killstreak Three-Rune Blade</t>
         </is>
       </c>
-      <c r="B350" s="7" t="inlineStr">
+      <c r="B350" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20782,7 +20789,7 @@
           <t>Killstreak Festive Force-A-Nature</t>
         </is>
       </c>
-      <c r="B351" s="7" t="inlineStr">
+      <c r="B351" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20898,7 +20905,7 @@
           <t>Co-Pilot</t>
         </is>
       </c>
-      <c r="B353" s="7" t="inlineStr">
+      <c r="B353" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -20956,7 +20963,7 @@
           <t>The Essential Accessories</t>
         </is>
       </c>
-      <c r="B354" s="7" t="inlineStr">
+      <c r="B354" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21014,7 +21021,7 @@
           <t>Strange Genuine Anger</t>
         </is>
       </c>
-      <c r="B355" s="7" t="inlineStr">
+      <c r="B355" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21072,7 +21079,7 @@
           <t>Strange Killstreak Pretty Boy's Pocket Pistol</t>
         </is>
       </c>
-      <c r="B356" s="7" t="inlineStr">
+      <c r="B356" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21130,7 +21137,7 @@
           <t>Strange Specialized Killstreak Scattergun</t>
         </is>
       </c>
-      <c r="B357" s="7" t="inlineStr">
+      <c r="B357" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21188,7 +21195,7 @@
           <t>Night Owl Sniper Rifle</t>
         </is>
       </c>
-      <c r="B358" s="7" t="inlineStr">
+      <c r="B358" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21246,7 +21253,7 @@
           <t>Marksman's Mohair</t>
         </is>
       </c>
-      <c r="B359" s="7" t="inlineStr">
+      <c r="B359" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21304,7 +21311,7 @@
           <t>Killstreak Sandman</t>
         </is>
       </c>
-      <c r="B360" s="7" t="inlineStr">
+      <c r="B360" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21362,7 +21369,7 @@
           <t>Co-Pilot</t>
         </is>
       </c>
-      <c r="B361" s="7" t="inlineStr">
+      <c r="B361" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21420,7 +21427,7 @@
           <t>Killstreak Festive Force-A-Nature</t>
         </is>
       </c>
-      <c r="B362" s="7" t="inlineStr">
+      <c r="B362" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21478,7 +21485,7 @@
           <t>Marksman's Mohair</t>
         </is>
       </c>
-      <c r="B363" s="7" t="inlineStr">
+      <c r="B363" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21536,7 +21543,7 @@
           <t>Strange Genuine Anger</t>
         </is>
       </c>
-      <c r="B364" s="7" t="inlineStr">
+      <c r="B364" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -21594,7 +21601,7 @@
           <t>Night Owl Sniper Rifle</t>
         </is>
       </c>
-      <c r="B365" s="7" t="inlineStr">
+      <c r="B365" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -29478,7 +29485,7 @@
           <t>Strange Scorch Shot</t>
         </is>
       </c>
-      <c r="B501" s="7" t="inlineStr">
+      <c r="B501" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -30232,7 +30239,7 @@
           <t>Mann Co. Supply Crate Key</t>
         </is>
       </c>
-      <c r="B514" s="7" t="inlineStr">
+      <c r="B514" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -30986,7 +30993,7 @@
           <t>Mann Co. Supply Munition Series #84</t>
         </is>
       </c>
-      <c r="B527" s="7" t="inlineStr">
+      <c r="B527" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31044,7 +31051,7 @@
           <t>Strange Killstreak Scattergun</t>
         </is>
       </c>
-      <c r="B528" s="7" t="inlineStr">
+      <c r="B528" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31102,7 +31109,7 @@
           <t>Bill's Hat</t>
         </is>
       </c>
-      <c r="B529" s="7" t="inlineStr">
+      <c r="B529" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31160,7 +31167,7 @@
           <t>''T00 L8 M8''</t>
         </is>
       </c>
-      <c r="B530" s="7" t="inlineStr">
+      <c r="B530" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31218,7 +31225,7 @@
           <t>Strange Specialized Killstreak Market Gardener</t>
         </is>
       </c>
-      <c r="B531" s="7" t="inlineStr">
+      <c r="B531" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31276,7 +31283,7 @@
           <t>Mann of the Seven Sees</t>
         </is>
       </c>
-      <c r="B532" s="7" t="inlineStr">
+      <c r="B532" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31334,7 +31341,7 @@
           <t>Soldier's Stash</t>
         </is>
       </c>
-      <c r="B533" s="7" t="inlineStr">
+      <c r="B533" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31392,7 +31399,7 @@
           <t>Strange Stickybomb Launcher</t>
         </is>
       </c>
-      <c r="B534" s="7" t="inlineStr">
+      <c r="B534" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31450,7 +31457,7 @@
           <t>Strange Specialized Killstreak Bushwacka</t>
         </is>
       </c>
-      <c r="B535" s="7" t="inlineStr">
+      <c r="B535" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31508,7 +31515,7 @@
           <t>Strange Specialized Killstreak Medi Gun</t>
         </is>
       </c>
-      <c r="B536" s="7" t="inlineStr">
+      <c r="B536" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31566,7 +31573,7 @@
           <t>Professional Killstreak Sniper Rifle Kit</t>
         </is>
       </c>
-      <c r="B537" s="7" t="inlineStr">
+      <c r="B537" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31624,7 +31631,7 @@
           <t>Strange Specialized Killstreak Spy-cicle</t>
         </is>
       </c>
-      <c r="B538" s="7" t="inlineStr">
+      <c r="B538" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31682,7 +31689,7 @@
           <t>Thirst Blood</t>
         </is>
       </c>
-      <c r="B539" s="7" t="inlineStr">
+      <c r="B539" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31740,7 +31747,7 @@
           <t>Strange Specialized Killstreak Black Box</t>
         </is>
       </c>
-      <c r="B540" s="7" t="inlineStr">
+      <c r="B540" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31798,7 +31805,7 @@
           <t>Strange Grenade Launcher</t>
         </is>
       </c>
-      <c r="B541" s="7" t="inlineStr">
+      <c r="B541" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31856,7 +31863,7 @@
           <t>Demoman's Fro</t>
         </is>
       </c>
-      <c r="B542" s="7" t="inlineStr">
+      <c r="B542" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -31914,7 +31921,7 @@
           <t>Balkan</t>
         </is>
       </c>
-      <c r="B543" s="5" t="inlineStr">
+      <c r="B543" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -31972,7 +31979,7 @@
           <t>Strange Crit-a-Cola</t>
         </is>
       </c>
-      <c r="B544" s="7" t="inlineStr">
+      <c r="B544" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32030,7 +32037,7 @@
           <t>Killstreak Ubersaw</t>
         </is>
       </c>
-      <c r="B545" s="7" t="inlineStr">
+      <c r="B545" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32088,7 +32095,7 @@
           <t>Strange Sandman</t>
         </is>
       </c>
-      <c r="B546" s="7" t="inlineStr">
+      <c r="B546" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32146,7 +32153,7 @@
           <t>Strange Persian Persuader</t>
         </is>
       </c>
-      <c r="B547" s="7" t="inlineStr">
+      <c r="B547" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32204,7 +32211,7 @@
           <t>Bill's Hat</t>
         </is>
       </c>
-      <c r="B548" s="7" t="inlineStr">
+      <c r="B548" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32262,7 +32269,7 @@
           <t>Mann Co. Supply Crate Key</t>
         </is>
       </c>
-      <c r="B549" s="7" t="inlineStr">
+      <c r="B549" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32320,7 +32327,7 @@
           <t>Specialized Killstreak Bushwacka Kit</t>
         </is>
       </c>
-      <c r="B550" s="7" t="inlineStr">
+      <c r="B550" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32436,7 +32443,7 @@
           <t>Festive Wrangler</t>
         </is>
       </c>
-      <c r="B552" s="7" t="inlineStr">
+      <c r="B552" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32552,7 +32559,7 @@
           <t>Strange Wrench</t>
         </is>
       </c>
-      <c r="B554" s="7" t="inlineStr">
+      <c r="B554" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32610,7 +32617,7 @@
           <t>Vintage Dead Ringer</t>
         </is>
       </c>
-      <c r="B555" s="7" t="inlineStr">
+      <c r="B555" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32726,7 +32733,7 @@
           <t>Anarchist</t>
         </is>
       </c>
-      <c r="B557" s="5" t="inlineStr">
+      <c r="B557" s="7" t="inlineStr">
         <is>
           <t>Counter-Strike: Global Offensive Trading Card</t>
         </is>
@@ -32784,7 +32791,7 @@
           <t>Vintage Dead Ringer</t>
         </is>
       </c>
-      <c r="B558" s="7" t="inlineStr">
+      <c r="B558" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32842,7 +32849,7 @@
           <t>Strange Part: Teammates Extinguished</t>
         </is>
       </c>
-      <c r="B559" s="7" t="inlineStr">
+      <c r="B559" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32900,7 +32907,7 @@
           <t>Vintage Ambassador</t>
         </is>
       </c>
-      <c r="B560" s="7" t="inlineStr">
+      <c r="B560" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -32958,7 +32965,7 @@
           <t>Strange Specialized Killstreak Sniper Rifle</t>
         </is>
       </c>
-      <c r="B561" s="7" t="inlineStr">
+      <c r="B561" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -33016,7 +33023,7 @@
           <t>Strange Persian Persuader</t>
         </is>
       </c>
-      <c r="B562" s="7" t="inlineStr">
+      <c r="B562" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -33074,7 +33081,7 @@
           <t>Mann Co. Supply Crate Key</t>
         </is>
       </c>
-      <c r="B563" s="7" t="inlineStr">
+      <c r="B563" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
@@ -33132,7 +33139,7 @@
           <t>Killstreak Ubersaw Kit</t>
         </is>
       </c>
-      <c r="B564" s="7" t="inlineStr">
+      <c r="B564" s="8" t="inlineStr">
         <is>
           <t>TF2</t>
         </is>
